--- a/example_reports/EJEMPLO-DATOS-GTM-DESTINOS.xlsx
+++ b/example_reports/EJEMPLO-DATOS-GTM-DESTINOS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>CODIGO</t>
   </si>
@@ -66,6 +66,36 @@
   </si>
   <si>
     <t>CALLE UZURITA #465</t>
+  </si>
+  <si>
+    <t>AA001</t>
+  </si>
+  <si>
+    <t>AA002</t>
+  </si>
+  <si>
+    <t>AA003</t>
+  </si>
+  <si>
+    <t>AA004</t>
+  </si>
+  <si>
+    <t>AA005</t>
+  </si>
+  <si>
+    <t>AA006</t>
+  </si>
+  <si>
+    <t>AA007</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>AA009</t>
+  </si>
+  <si>
+    <t>AA010</t>
   </si>
 </sst>
 </file>
@@ -109,9 +139,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,131 +426,173 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="1"/>
     </row>
   </sheetData>
